--- a/data/trans_dic/P6902-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,15; 85,58</t>
+          <t>66,95; 86,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,34; 73,76</t>
+          <t>49,51; 75,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,73; 85,0</t>
+          <t>60,01; 84,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,0; 98,03</t>
+          <t>83,3; 98,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,66; 88,16</t>
+          <t>62,0; 88,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,96; 91,4</t>
+          <t>68,21; 92,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,25; 84,21</t>
+          <t>54,78; 82,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,38; 90,04</t>
+          <t>74,51; 90,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,53; 83,84</t>
+          <t>66,98; 83,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61,95; 80,8</t>
+          <t>61,1; 79,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,85; 80,88</t>
+          <t>61,49; 80,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>80,98; 91,84</t>
+          <t>81,19; 92,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,28; 71,28</t>
+          <t>40,7; 70,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,17; 82,57</t>
+          <t>49,71; 82,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,99; 77,84</t>
+          <t>39,9; 75,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,5; 93,98</t>
+          <t>70,54; 93,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,47; 81,23</t>
+          <t>52,67; 82,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,0; 79,1</t>
+          <t>38,55; 80,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,86; 90,16</t>
+          <t>57,85; 90,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,75; 90,26</t>
+          <t>69,89; 90,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,87; 72,15</t>
+          <t>49,75; 72,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,04; 76,32</t>
+          <t>49,36; 76,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,11; 79,8</t>
+          <t>55,54; 80,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,16; 90,41</t>
+          <t>75,03; 90,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,98; 62,34</t>
+          <t>41,24; 61,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,54; 51,96</t>
+          <t>29,61; 52,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,22; 47,5</t>
+          <t>23,04; 46,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,19; 61,38</t>
+          <t>32,98; 60,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 58,43</t>
+          <t>6,91; 56,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,18; 67,8</t>
+          <t>28,58; 65,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,47; 91,32</t>
+          <t>33,46; 90,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,58; 70,1</t>
+          <t>33,47; 72,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,41; 58,1</t>
+          <t>38,98; 58,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,8; 52,71</t>
+          <t>34,22; 53,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,48; 50,17</t>
+          <t>27,32; 50,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,64; 58,51</t>
+          <t>36,45; 58,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 37,97</t>
+          <t>25,41; 38,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 51,6</t>
+          <t>33,4; 52,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,82; 51,54</t>
+          <t>34,55; 50,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,25; 64,13</t>
+          <t>45,67; 64,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,59; 64,49</t>
+          <t>35,53; 63,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,12; 60,6</t>
+          <t>35,19; 59,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,15; 70,06</t>
+          <t>46,62; 69,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,24; 72,89</t>
+          <t>57,06; 72,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,14; 41,45</t>
+          <t>29,48; 42,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,78; 53,04</t>
+          <t>37,29; 52,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42,23; 55,7</t>
+          <t>41,83; 55,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,48; 65,54</t>
+          <t>52,94; 65,48</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 38,25</t>
+          <t>13,97; 37,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,17; 45,94</t>
+          <t>15,42; 46,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,09; 37,72</t>
+          <t>15,42; 36,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,84; 61,08</t>
+          <t>32,67; 62,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,09; 40,38</t>
+          <t>18,9; 41,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,15; 68,86</t>
+          <t>38,01; 69,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,93; 56,37</t>
+          <t>29,03; 56,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,99; 57,29</t>
+          <t>17,85; 57,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,57; 35,98</t>
+          <t>19,53; 35,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,25; 55,31</t>
+          <t>30,15; 53,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,61; 41,04</t>
+          <t>24,27; 40,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,52; 54,28</t>
+          <t>22,23; 54,37</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,46; 48,43</t>
+          <t>38,71; 48,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41,03; 52,06</t>
+          <t>40,96; 52,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,13; 49,1</t>
+          <t>37,8; 48,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,75; 66,69</t>
+          <t>56,4; 67,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,12; 57,5</t>
+          <t>45,02; 58,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,47; 63,88</t>
+          <t>50,04; 64,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,42; 66,65</t>
+          <t>53,61; 67,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,99; 68,72</t>
+          <t>43,91; 68,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>41,73; 49,52</t>
+          <t>42,18; 49,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>47,09; 55,93</t>
+          <t>46,69; 55,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>45,54; 54,18</t>
+          <t>45,38; 54,22</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,34; 65,76</t>
+          <t>51,44; 65,93</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente nervioso y estresado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50046</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34807</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34458</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>42693</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35860</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35886</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32599</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>49525</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>85905</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>70694</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>67057</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>92217</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43573; 56076</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27460; 41670</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28150; 39704</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>38166; 44915</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28922; 41174</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29922; 40441</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25162; 37784</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44177; 53586</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>74838; 93283</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60693; 79161</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57087; 74604</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>85341; 97090</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23304</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24624</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18262</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43473</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28483</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15827</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22485</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34353</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51786</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>40451</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>40747</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>77826</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17238; 29917</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18065; 29842</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12064; 22941</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35821; 47669</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21918; 34345</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10259; 21323</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17003; 26544</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29463; 37991</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>41778; 60638</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>31076; 48019</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>33116; 47835</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>69731; 83934</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>52060</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31908</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22826</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27119</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16135</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6566</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9299</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56885</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>48042</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29392</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>36418</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>41256; 61898</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23197; 40860</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15414; 31084</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19300; 35578</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1126; 9239</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9636; 22153</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3201; 8685</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5972; 12856</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45338; 67816</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38348; 59739</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20886; 38261</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27833; 45034</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>63515</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>49683</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>58592</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>73028</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24952</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>32810</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>49304</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>69499</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>88467</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>82494</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>107896</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>142527</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51038; 78117</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>38854; 60646</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47290; 69771</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60846; 85844</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17744; 31850</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23915; 40638</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>39195; 58010</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>60348; 76703</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>73938; 105453</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>68726; 96665</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>92421; 122246</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>126523; 156471</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16137</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11349</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17856</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23654</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18898</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23528</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20081</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>50330</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35034</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34877</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>37937</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>73984</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8941; 23958</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5957; 17802</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10652; 25191</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16717; 31843</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12399; 26915</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16600; 30561</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13738; 26872</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22710; 72608</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>25313; 45454</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24812; 44096</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>28250; 47546</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>39668; 97002</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>205061</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>152372</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>151995</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>209966</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>113018</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>124186</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>131034</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>318079</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>276558</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>283029</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>422972</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>182842; 226766</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>133156; 170842</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>132290; 170699</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>191466; 227618</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>99095; 129325</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>108010; 138217</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>115947; 145027</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>154677; 241350</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>292085; 343979</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>252559; 300396</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>256966; 307060</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>355858; 456106</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P6902-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
